--- a/data/residential-mobility/historical-descriptives/station-summary-moving-data.xlsx
+++ b/data/residential-mobility/historical-descriptives/station-summary-moving-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
   <si>
     <t xml:space="preserve">station_fid</t>
   </si>
@@ -100,18 +100,6 @@
     <t xml:space="preserve">% of low income residents that move out – CMA total</t>
   </si>
   <si>
-    <t xml:space="preserve">% of OUT movers that are low income – station areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of OUT movers that are low income – CMA total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of STAYERS movers that are low income – station areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of STAYERS that are low income – CMA total</t>
-  </si>
-  <si>
     <t xml:space="preserve">NA</t>
   </si>
 </sst>
@@ -119,15 +107,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -187,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,11 +184,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,11 +207,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P73" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB76" activeCellId="0" sqref="AB76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -312,25 +296,13 @@
       <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
       <c r="ALH1" s="0"/>
       <c r="ALI1" s="0"/>
       <c r="ALJ1" s="0"/>
@@ -449,30 +421,6 @@
         <f aca="false">IF(AA2&lt;AB2,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE2" s="0" t="n">
-        <f aca="false">G2/F2</f>
-        <v>0.204739336492891</v>
-      </c>
-      <c r="AF2" s="0" t="n">
-        <f aca="false">U2/T2</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG2" s="2" t="b">
-        <f aca="false">IF(AE2&lt;AF2,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI2" s="0" t="n">
-        <f aca="false">K2/J2</f>
-        <v>0.116455696202532</v>
-      </c>
-      <c r="AJ2" s="0" t="n">
-        <f aca="false">Q2/P2</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK2" s="2" t="b">
-        <f aca="false">IF(AI2&gt;AJ2,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -562,30 +510,6 @@
         <f aca="false">IF(AA3&lt;AB3,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE3" s="0" t="n">
-        <f aca="false">G3/F3</f>
-        <v>0.161616161616162</v>
-      </c>
-      <c r="AF3" s="0" t="n">
-        <f aca="false">U3/T3</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <f aca="false">IF(AE3&lt;AF3,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI3" s="0" t="n">
-        <f aca="false">K3/J3</f>
-        <v>0.0959527057753524</v>
-      </c>
-      <c r="AJ3" s="0" t="n">
-        <f aca="false">Q3/P3</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <f aca="false">IF(AI3&gt;AJ3,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -675,30 +599,6 @@
         <f aca="false">IF(AA4&lt;AB4,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE4" s="0" t="n">
-        <f aca="false">G4/F4</f>
-        <v>0.157017543859649</v>
-      </c>
-      <c r="AF4" s="0" t="n">
-        <f aca="false">U4/T4</f>
-        <v>0.239623838283555</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <f aca="false">IF(AE4&lt;AF4,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI4" s="0" t="n">
-        <f aca="false">K4/J4</f>
-        <v>0.0850785340314136</v>
-      </c>
-      <c r="AJ4" s="0" t="n">
-        <f aca="false">Q4/P4</f>
-        <v>0.0904115099307686</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <f aca="false">IF(AI4&gt;AJ4,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -788,30 +688,6 @@
         <f aca="false">IF(AA5&lt;AB5,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE5" s="0" t="n">
-        <f aca="false">G5/F5</f>
-        <v>0.233969986357435</v>
-      </c>
-      <c r="AF5" s="0" t="n">
-        <f aca="false">U5/T5</f>
-        <v>0.259740490769171</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <f aca="false">IF(AE5&lt;AF5,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI5" s="0" t="n">
-        <f aca="false">K5/J5</f>
-        <v>0.120595144870791</v>
-      </c>
-      <c r="AJ5" s="0" t="n">
-        <f aca="false">Q5/P5</f>
-        <v>0.105674910746512</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <f aca="false">IF(AI5&gt;AJ5,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -901,30 +777,6 @@
         <f aca="false">IF(AA6&lt;AB6,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE6" s="0" t="n">
-        <f aca="false">G6/F6</f>
-        <v>0.179848320693391</v>
-      </c>
-      <c r="AF6" s="0" t="n">
-        <f aca="false">U6/T6</f>
-        <v>0.239623838283555</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <f aca="false">IF(AE6&lt;AF6,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <f aca="false">K6/J6</f>
-        <v>0.096054204862495</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <f aca="false">Q6/P6</f>
-        <v>0.0904115099307686</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <f aca="false">IF(AI6&gt;AJ6,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1014,30 +866,6 @@
         <f aca="false">IF(AA7&lt;AB7,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE7" s="0" t="n">
-        <f aca="false">G7/F7</f>
-        <v>0.220550077841204</v>
-      </c>
-      <c r="AF7" s="0" t="n">
-        <f aca="false">U7/T7</f>
-        <v>0.220071241332657</v>
-      </c>
-      <c r="AG7" s="2" t="n">
-        <f aca="false">IF(AE7&lt;AF7,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="0" t="n">
-        <f aca="false">K7/J7</f>
-        <v>0.0954895489548955</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
-        <f aca="false">Q7/P7</f>
-        <v>0.0928945161599208</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <f aca="false">IF(AI7&gt;AJ7,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1127,30 +955,6 @@
         <f aca="false">IF(AA8&lt;AB8,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="0" t="n">
-        <f aca="false">G8/F8</f>
-        <v>0.224289911851126</v>
-      </c>
-      <c r="AF8" s="0" t="n">
-        <f aca="false">U8/T8</f>
-        <v>0.226362178452544</v>
-      </c>
-      <c r="AG8" s="2" t="n">
-        <f aca="false">IF(AE8&lt;AF8,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI8" s="0" t="n">
-        <f aca="false">K8/J8</f>
-        <v>0.09373097991479</v>
-      </c>
-      <c r="AJ8" s="0" t="n">
-        <f aca="false">Q8/P8</f>
-        <v>0.0883549471090584</v>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <f aca="false">IF(AI8&gt;AJ8,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1181,16 +985,16 @@
         <v>33800</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>19383275</v>
@@ -1237,30 +1041,6 @@
         <f aca="false">IF(AA9&lt;AB9,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE9" s="0" t="n">
-        <f aca="false">G9/F9</f>
-        <v>0.232217573221757</v>
-      </c>
-      <c r="AF9" s="0" t="n">
-        <f aca="false">U9/T9</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG9" s="2" t="n">
-        <f aca="false">IF(AE9&lt;AF9,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="0" t="e">
-        <f aca="false">K9/J9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ9" s="0" t="n">
-        <f aca="false">Q9/P9</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK9" s="2" t="e">
-        <f aca="false">IF(AI9&gt;AJ9,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1350,30 +1130,6 @@
         <f aca="false">IF(AA10&lt;AB10,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="0" t="n">
-        <f aca="false">G10/F10</f>
-        <v>0.135603910438348</v>
-      </c>
-      <c r="AF10" s="0" t="n">
-        <f aca="false">U10/T10</f>
-        <v>0.221949908251786</v>
-      </c>
-      <c r="AG10" s="2" t="n">
-        <f aca="false">IF(AE10&lt;AF10,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI10" s="0" t="n">
-        <f aca="false">K10/J10</f>
-        <v>0.0917248255234297</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
-        <f aca="false">Q10/P10</f>
-        <v>0.0895436404609347</v>
-      </c>
-      <c r="AK10" s="2" t="n">
-        <f aca="false">IF(AI10&gt;AJ10,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1404,16 +1160,16 @@
         <v>24000</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>19383275</v>
@@ -1460,30 +1216,6 @@
         <f aca="false">IF(AA11&lt;AB11,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE11" s="0" t="n">
-        <f aca="false">G11/F11</f>
-        <v>0.298224127372933</v>
-      </c>
-      <c r="AF11" s="0" t="n">
-        <f aca="false">U11/T11</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <f aca="false">IF(AE11&lt;AF11,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="0" t="e">
-        <f aca="false">K11/J11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
-        <f aca="false">Q11/P11</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK11" s="2" t="e">
-        <f aca="false">IF(AI11&gt;AJ11,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1573,30 +1305,6 @@
         <f aca="false">IF(AA12&lt;AB12,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="0" t="n">
-        <f aca="false">G12/F12</f>
-        <v>0.295846943537097</v>
-      </c>
-      <c r="AF12" s="0" t="n">
-        <f aca="false">U12/T12</f>
-        <v>0.218844835009779</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <f aca="false">IF(AE12&lt;AF12,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="0" t="n">
-        <f aca="false">K12/J12</f>
-        <v>0.23240589198036</v>
-      </c>
-      <c r="AJ12" s="0" t="n">
-        <f aca="false">Q12/P12</f>
-        <v>0.0914361736791316</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <f aca="false">IF(AI12&gt;AJ12,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1686,30 +1394,6 @@
         <f aca="false">IF(AA13&lt;AB13,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="0" t="n">
-        <f aca="false">G13/F13</f>
-        <v>0.292763157894737</v>
-      </c>
-      <c r="AF13" s="0" t="n">
-        <f aca="false">U13/T13</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <f aca="false">IF(AE13&lt;AF13,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="0" t="n">
-        <f aca="false">K13/J13</f>
-        <v>0.44140625</v>
-      </c>
-      <c r="AJ13" s="0" t="n">
-        <f aca="false">Q13/P13</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <f aca="false">IF(AI13&gt;AJ13,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1799,30 +1483,6 @@
         <f aca="false">IF(AA14&lt;AB14,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE14" s="0" t="n">
-        <f aca="false">G14/F14</f>
-        <v>0.240594925634296</v>
-      </c>
-      <c r="AF14" s="0" t="n">
-        <f aca="false">U14/T14</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <f aca="false">IF(AE14&lt;AF14,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="0" t="n">
-        <f aca="false">K14/J14</f>
-        <v>0.153769841269841</v>
-      </c>
-      <c r="AJ14" s="0" t="n">
-        <f aca="false">Q14/P14</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <f aca="false">IF(AI14&gt;AJ14,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1912,30 +1572,6 @@
         <f aca="false">IF(AA15&lt;AB15,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="0" t="n">
-        <f aca="false">G15/F15</f>
-        <v>0.134023042558194</v>
-      </c>
-      <c r="AF15" s="0" t="n">
-        <f aca="false">U15/T15</f>
-        <v>0.221949908251786</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <f aca="false">IF(AE15&lt;AF15,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI15" s="0" t="n">
-        <f aca="false">K15/J15</f>
-        <v>0.107264472190692</v>
-      </c>
-      <c r="AJ15" s="0" t="n">
-        <f aca="false">Q15/P15</f>
-        <v>0.0895436404609347</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <f aca="false">IF(AI15&gt;AJ15,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2025,30 +1661,6 @@
         <f aca="false">IF(AA16&lt;AB16,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE16" s="0" t="n">
-        <f aca="false">G16/F16</f>
-        <v>0.18640350877193</v>
-      </c>
-      <c r="AF16" s="0" t="n">
-        <f aca="false">U16/T16</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <f aca="false">IF(AE16&lt;AF16,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI16" s="0" t="n">
-        <f aca="false">K16/J16</f>
-        <v>0.107618343195266</v>
-      </c>
-      <c r="AJ16" s="0" t="n">
-        <f aca="false">Q16/P16</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK16" s="2" t="n">
-        <f aca="false">IF(AI16&gt;AJ16,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2079,16 +1691,16 @@
         <v>27200</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N17" s="0" t="n">
         <v>20493125</v>
@@ -2135,30 +1747,6 @@
         <f aca="false">IF(AA17&lt;AB17,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE17" s="0" t="n">
-        <f aca="false">G17/F17</f>
-        <v>0.132517838939857</v>
-      </c>
-      <c r="AF17" s="0" t="n">
-        <f aca="false">U17/T17</f>
-        <v>0.221949908251786</v>
-      </c>
-      <c r="AG17" s="2" t="n">
-        <f aca="false">IF(AE17&lt;AF17,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI17" s="0" t="e">
-        <f aca="false">K17/J17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ17" s="0" t="n">
-        <f aca="false">Q17/P17</f>
-        <v>0.0895436404609347</v>
-      </c>
-      <c r="AK17" s="2" t="e">
-        <f aca="false">IF(AI17&gt;AJ17,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2189,16 +1777,16 @@
         <v>33600</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>19383275</v>
@@ -2245,30 +1833,6 @@
         <f aca="false">IF(AA18&lt;AB18,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE18" s="0" t="n">
-        <f aca="false">G18/F18</f>
-        <v>0.232683658170915</v>
-      </c>
-      <c r="AF18" s="0" t="n">
-        <f aca="false">U18/T18</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG18" s="2" t="n">
-        <f aca="false">IF(AE18&lt;AF18,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="0" t="e">
-        <f aca="false">K18/J18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ18" s="0" t="n">
-        <f aca="false">Q18/P18</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK18" s="2" t="e">
-        <f aca="false">IF(AI18&gt;AJ18,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2358,30 +1922,6 @@
         <f aca="false">IF(AA19&lt;AB19,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="0" t="n">
-        <f aca="false">G19/F19</f>
-        <v>0.128400954653938</v>
-      </c>
-      <c r="AF19" s="0" t="n">
-        <f aca="false">U19/T19</f>
-        <v>0.237647902474005</v>
-      </c>
-      <c r="AG19" s="2" t="n">
-        <f aca="false">IF(AE19&lt;AF19,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI19" s="0" t="n">
-        <f aca="false">K19/J19</f>
-        <v>0.1106463878327</v>
-      </c>
-      <c r="AJ19" s="0" t="n">
-        <f aca="false">Q19/P19</f>
-        <v>0.106043652111657</v>
-      </c>
-      <c r="AK19" s="2" t="n">
-        <f aca="false">IF(AI19&gt;AJ19,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2400,28 +1940,28 @@
         <v>30400</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>19383275</v>
@@ -2468,26 +2008,6 @@
         <f aca="false">IF(AA20&lt;AB20,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF20" s="0" t="n">
-        <f aca="false">U20/T20</f>
-        <v>0.225771017692916</v>
-      </c>
-      <c r="AG20" s="2" t="n">
-        <f aca="false">IF(AE20&lt;AF20,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI20" s="0" t="e">
-        <f aca="false">K20/J20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ20" s="0" t="n">
-        <f aca="false">Q20/P20</f>
-        <v>0.0990144463555756</v>
-      </c>
-      <c r="AK20" s="2" t="e">
-        <f aca="false">IF(AI20&gt;AJ20,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2577,30 +2097,6 @@
         <f aca="false">IF(AA21&lt;AB21,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE21" s="0" t="n">
-        <f aca="false">G21/F21</f>
-        <v>0.353339787028074</v>
-      </c>
-      <c r="AF21" s="0" t="n">
-        <f aca="false">U21/T21</f>
-        <v>0.218844835009779</v>
-      </c>
-      <c r="AG21" s="2" t="n">
-        <f aca="false">IF(AE21&lt;AF21,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="0" t="n">
-        <f aca="false">K21/J21</f>
-        <v>0.238782051282051</v>
-      </c>
-      <c r="AJ21" s="0" t="n">
-        <f aca="false">Q21/P21</f>
-        <v>0.0914361736791316</v>
-      </c>
-      <c r="AK21" s="2" t="n">
-        <f aca="false">IF(AI21&gt;AJ21,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2631,16 +2127,16 @@
         <v>24800</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>20895985</v>
@@ -2687,30 +2183,6 @@
         <f aca="false">IF(AA22&lt;AB22,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE22" s="0" t="n">
-        <f aca="false">G22/F22</f>
-        <v>0.361387283236994</v>
-      </c>
-      <c r="AF22" s="0" t="n">
-        <f aca="false">U22/T22</f>
-        <v>0.226569528177682</v>
-      </c>
-      <c r="AG22" s="2" t="n">
-        <f aca="false">IF(AE22&lt;AF22,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="0" t="e">
-        <f aca="false">K22/J22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ22" s="0" t="n">
-        <f aca="false">Q22/P22</f>
-        <v>0.0933462835911669</v>
-      </c>
-      <c r="AK22" s="2" t="e">
-        <f aca="false">IF(AI22&gt;AJ22,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2729,28 +2201,28 @@
         <v>24200</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N23" s="0" t="n">
         <v>20895985</v>
@@ -2797,26 +2269,6 @@
         <f aca="false">IF(AA23&lt;AB23,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF23" s="0" t="n">
-        <f aca="false">U23/T23</f>
-        <v>0.226569528177682</v>
-      </c>
-      <c r="AG23" s="2" t="n">
-        <f aca="false">IF(AE23&lt;AF23,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI23" s="0" t="e">
-        <f aca="false">K23/J23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ23" s="0" t="n">
-        <f aca="false">Q23/P23</f>
-        <v>0.0933462835911669</v>
-      </c>
-      <c r="AK23" s="2" t="e">
-        <f aca="false">IF(AI23&gt;AJ23,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -2906,30 +2358,6 @@
         <f aca="false">IF(AA24&lt;AB24,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="0" t="n">
-        <f aca="false">G24/F24</f>
-        <v>0.35063244047619</v>
-      </c>
-      <c r="AF24" s="0" t="n">
-        <f aca="false">U24/T24</f>
-        <v>0.226569528177682</v>
-      </c>
-      <c r="AG24" s="2" t="n">
-        <f aca="false">IF(AE24&lt;AF24,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="0" t="n">
-        <f aca="false">K24/J24</f>
-        <v>0.23168908819133</v>
-      </c>
-      <c r="AJ24" s="0" t="n">
-        <f aca="false">Q24/P24</f>
-        <v>0.0933462835911669</v>
-      </c>
-      <c r="AK24" s="2" t="n">
-        <f aca="false">IF(AI24&gt;AJ24,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -3019,30 +2447,6 @@
         <f aca="false">IF(AA25&lt;AB25,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="0" t="n">
-        <f aca="false">G25/F25</f>
-        <v>0.26576482830385</v>
-      </c>
-      <c r="AF25" s="0" t="n">
-        <f aca="false">U25/T25</f>
-        <v>0.321717257362501</v>
-      </c>
-      <c r="AG25" s="2" t="n">
-        <f aca="false">IF(AE25&lt;AF25,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI25" s="0" t="n">
-        <f aca="false">K25/J25</f>
-        <v>0.160075329566855</v>
-      </c>
-      <c r="AJ25" s="0" t="n">
-        <f aca="false">Q25/P25</f>
-        <v>0.143552515970653</v>
-      </c>
-      <c r="AK25" s="2" t="n">
-        <f aca="false">IF(AI25&gt;AJ25,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -3132,30 +2536,6 @@
         <f aca="false">IF(AA26&lt;AB26,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="0" t="n">
-        <f aca="false">G26/F26</f>
-        <v>0.269695505074915</v>
-      </c>
-      <c r="AF26" s="0" t="n">
-        <f aca="false">U26/T26</f>
-        <v>0.321717257362501</v>
-      </c>
-      <c r="AG26" s="2" t="n">
-        <f aca="false">IF(AE26&lt;AF26,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI26" s="0" t="n">
-        <f aca="false">K26/J26</f>
-        <v>0.155737704918033</v>
-      </c>
-      <c r="AJ26" s="0" t="n">
-        <f aca="false">Q26/P26</f>
-        <v>0.143552515970653</v>
-      </c>
-      <c r="AK26" s="2" t="n">
-        <f aca="false">IF(AI26&gt;AJ26,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -3245,30 +2625,6 @@
         <f aca="false">IF(AA27&lt;AB27,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE27" s="0" t="n">
-        <f aca="false">G27/F27</f>
-        <v>0.333196721311475</v>
-      </c>
-      <c r="AF27" s="0" t="n">
-        <f aca="false">U27/T27</f>
-        <v>0.348810384007828</v>
-      </c>
-      <c r="AG27" s="2" t="n">
-        <f aca="false">IF(AE27&lt;AF27,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI27" s="0" t="n">
-        <f aca="false">K27/J27</f>
-        <v>0.311764705882353</v>
-      </c>
-      <c r="AJ27" s="0" t="n">
-        <f aca="false">Q27/P27</f>
-        <v>0.203016525362074</v>
-      </c>
-      <c r="AK27" s="2" t="n">
-        <f aca="false">IF(AI27&gt;AJ27,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -3299,16 +2655,16 @@
         <v>15500</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N28" s="0" t="n">
         <v>60786005</v>
@@ -3355,30 +2711,6 @@
         <f aca="false">IF(AA28&lt;AB28,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE28" s="0" t="n">
-        <f aca="false">G28/F28</f>
-        <v>0.376382563435263</v>
-      </c>
-      <c r="AF28" s="0" t="n">
-        <f aca="false">U28/T28</f>
-        <v>0.32547292801105</v>
-      </c>
-      <c r="AG28" s="2" t="n">
-        <f aca="false">IF(AE28&lt;AF28,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="0" t="e">
-        <f aca="false">K28/J28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ28" s="0" t="n">
-        <f aca="false">Q28/P28</f>
-        <v>0.157966013871943</v>
-      </c>
-      <c r="AK28" s="2" t="e">
-        <f aca="false">IF(AI28&gt;AJ28,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -3409,16 +2741,16 @@
         <v>28200</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N29" s="0" t="n">
         <v>60786005</v>
@@ -3465,30 +2797,6 @@
         <f aca="false">IF(AA29&lt;AB29,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE29" s="0" t="n">
-        <f aca="false">G29/F29</f>
-        <v>0.145991939095387</v>
-      </c>
-      <c r="AF29" s="0" t="n">
-        <f aca="false">U29/T29</f>
-        <v>0.32547292801105</v>
-      </c>
-      <c r="AG29" s="2" t="n">
-        <f aca="false">IF(AE29&lt;AF29,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI29" s="0" t="e">
-        <f aca="false">K29/J29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ29" s="0" t="n">
-        <f aca="false">Q29/P29</f>
-        <v>0.157966013871943</v>
-      </c>
-      <c r="AK29" s="2" t="e">
-        <f aca="false">IF(AI29&gt;AJ29,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -3578,30 +2886,6 @@
         <f aca="false">IF(AA30&lt;AB30,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="0" t="n">
-        <f aca="false">G30/F30</f>
-        <v>0.418819188191882</v>
-      </c>
-      <c r="AF30" s="0" t="n">
-        <f aca="false">U30/T30</f>
-        <v>0.321717257362501</v>
-      </c>
-      <c r="AG30" s="2" t="n">
-        <f aca="false">IF(AE30&lt;AF30,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="0" t="n">
-        <f aca="false">K30/J30</f>
-        <v>0.224741251848201</v>
-      </c>
-      <c r="AJ30" s="0" t="n">
-        <f aca="false">Q30/P30</f>
-        <v>0.143552515970653</v>
-      </c>
-      <c r="AK30" s="2" t="n">
-        <f aca="false">IF(AI30&gt;AJ30,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -3632,16 +2916,16 @@
         <v>25800</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N31" s="0" t="n">
         <v>60638230</v>
@@ -3688,30 +2972,6 @@
         <f aca="false">IF(AA31&lt;AB31,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE31" s="0" t="n">
-        <f aca="false">G31/F31</f>
-        <v>0.147391304347826</v>
-      </c>
-      <c r="AF31" s="0" t="n">
-        <f aca="false">U31/T31</f>
-        <v>0.322698676274614</v>
-      </c>
-      <c r="AG31" s="2" t="n">
-        <f aca="false">IF(AE31&lt;AF31,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI31" s="0" t="e">
-        <f aca="false">K31/J31</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ31" s="0" t="n">
-        <f aca="false">Q31/P31</f>
-        <v>0.151006492941258</v>
-      </c>
-      <c r="AK31" s="2" t="e">
-        <f aca="false">IF(AI31&gt;AJ31,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -3730,28 +2990,28 @@
         <v>23300</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>48877455</v>
@@ -3798,26 +3058,6 @@
         <f aca="false">IF(AA32&lt;AB32,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF32" s="0" t="n">
-        <f aca="false">U32/T32</f>
-        <v>0.338659032462908</v>
-      </c>
-      <c r="AG32" s="2" t="n">
-        <f aca="false">IF(AE32&lt;AF32,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI32" s="0" t="e">
-        <f aca="false">K32/J32</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ32" s="0" t="n">
-        <f aca="false">Q32/P32</f>
-        <v>0.200538804784321</v>
-      </c>
-      <c r="AK32" s="2" t="e">
-        <f aca="false">IF(AI32&gt;AJ32,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -3907,30 +3147,6 @@
         <f aca="false">IF(AA33&lt;AB33,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="0" t="n">
-        <f aca="false">G33/F33</f>
-        <v>0.287349211258893</v>
-      </c>
-      <c r="AF33" s="0" t="n">
-        <f aca="false">U33/T33</f>
-        <v>0.321717257362501</v>
-      </c>
-      <c r="AG33" s="2" t="n">
-        <f aca="false">IF(AE33&lt;AF33,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI33" s="0" t="n">
-        <f aca="false">K33/J33</f>
-        <v>0.165767533104463</v>
-      </c>
-      <c r="AJ33" s="0" t="n">
-        <f aca="false">Q33/P33</f>
-        <v>0.143552515970653</v>
-      </c>
-      <c r="AK33" s="2" t="n">
-        <f aca="false">IF(AI33&gt;AJ33,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -3949,28 +3165,28 @@
         <v>24000</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>59635950</v>
@@ -4017,26 +3233,6 @@
         <f aca="false">IF(AA34&lt;AB34,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF34" s="0" t="n">
-        <f aca="false">U34/T34</f>
-        <v>0.334230792450752</v>
-      </c>
-      <c r="AG34" s="2" t="n">
-        <f aca="false">IF(AE34&lt;AF34,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI34" s="0" t="e">
-        <f aca="false">K34/J34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ34" s="0" t="n">
-        <f aca="false">Q34/P34</f>
-        <v>0.166386518513504</v>
-      </c>
-      <c r="AK34" s="2" t="e">
-        <f aca="false">IF(AI34&gt;AJ34,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -4126,30 +3322,6 @@
         <f aca="false">IF(AA35&lt;AB35,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE35" s="0" t="n">
-        <f aca="false">G35/F35</f>
-        <v>0.38129803586678</v>
-      </c>
-      <c r="AF35" s="0" t="n">
-        <f aca="false">U35/T35</f>
-        <v>0.32547292801105</v>
-      </c>
-      <c r="AG35" s="2" t="n">
-        <f aca="false">IF(AE35&lt;AF35,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="0" t="n">
-        <f aca="false">K35/J35</f>
-        <v>0.285046728971963</v>
-      </c>
-      <c r="AJ35" s="0" t="n">
-        <f aca="false">Q35/P35</f>
-        <v>0.157966013871943</v>
-      </c>
-      <c r="AK35" s="2" t="n">
-        <f aca="false">IF(AI35&gt;AJ35,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -4180,16 +3352,16 @@
         <v>28200</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>60786005</v>
@@ -4236,30 +3408,6 @@
         <f aca="false">IF(AA36&lt;AB36,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE36" s="0" t="n">
-        <f aca="false">G36/F36</f>
-        <v>0.181802807373584</v>
-      </c>
-      <c r="AF36" s="0" t="n">
-        <f aca="false">U36/T36</f>
-        <v>0.32547292801105</v>
-      </c>
-      <c r="AG36" s="2" t="n">
-        <f aca="false">IF(AE36&lt;AF36,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI36" s="0" t="e">
-        <f aca="false">K36/J36</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ36" s="0" t="n">
-        <f aca="false">Q36/P36</f>
-        <v>0.157966013871943</v>
-      </c>
-      <c r="AK36" s="2" t="e">
-        <f aca="false">IF(AI36&gt;AJ36,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -4278,28 +3426,28 @@
         <v>25400</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>59300960</v>
@@ -4346,26 +3494,6 @@
         <f aca="false">IF(AA37&lt;AB37,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF37" s="0" t="n">
-        <f aca="false">U37/T37</f>
-        <v>0.339710229043734</v>
-      </c>
-      <c r="AG37" s="2" t="n">
-        <f aca="false">IF(AE37&lt;AF37,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI37" s="0" t="e">
-        <f aca="false">K37/J37</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ37" s="0" t="n">
-        <f aca="false">Q37/P37</f>
-        <v>0.171352473517913</v>
-      </c>
-      <c r="AK37" s="2" t="e">
-        <f aca="false">IF(AI37&gt;AJ37,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -4455,30 +3583,6 @@
         <f aca="false">IF(AA38&lt;AB38,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE38" s="0" t="n">
-        <f aca="false">G38/F38</f>
-        <v>0.209325396825397</v>
-      </c>
-      <c r="AF38" s="0" t="n">
-        <f aca="false">U38/T38</f>
-        <v>0.320694620692872</v>
-      </c>
-      <c r="AG38" s="2" t="n">
-        <f aca="false">IF(AE38&lt;AF38,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI38" s="0" t="n">
-        <f aca="false">K38/J38</f>
-        <v>0.1078184110971</v>
-      </c>
-      <c r="AJ38" s="0" t="n">
-        <f aca="false">Q38/P38</f>
-        <v>0.141376040011263</v>
-      </c>
-      <c r="AK38" s="2" t="n">
-        <f aca="false">IF(AI38&gt;AJ38,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -4497,28 +3601,28 @@
         <v>25100</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N39" s="0" t="n">
         <v>54203300</v>
@@ -4565,26 +3669,6 @@
         <f aca="false">IF(AA39&lt;AB39,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF39" s="0" t="n">
-        <f aca="false">U39/T39</f>
-        <v>0.348810384007828</v>
-      </c>
-      <c r="AG39" s="2" t="n">
-        <f aca="false">IF(AE39&lt;AF39,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI39" s="0" t="e">
-        <f aca="false">K39/J39</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ39" s="0" t="n">
-        <f aca="false">Q39/P39</f>
-        <v>0.203016525362074</v>
-      </c>
-      <c r="AK39" s="2" t="e">
-        <f aca="false">IF(AI39&gt;AJ39,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -4603,28 +3687,28 @@
         <v>28800</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>54203300</v>
@@ -4671,26 +3755,6 @@
         <f aca="false">IF(AA40&lt;AB40,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF40" s="0" t="n">
-        <f aca="false">U40/T40</f>
-        <v>0.348810384007828</v>
-      </c>
-      <c r="AG40" s="2" t="n">
-        <f aca="false">IF(AE40&lt;AF40,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI40" s="0" t="e">
-        <f aca="false">K40/J40</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ40" s="0" t="n">
-        <f aca="false">Q40/P40</f>
-        <v>0.203016525362074</v>
-      </c>
-      <c r="AK40" s="2" t="e">
-        <f aca="false">IF(AI40&gt;AJ40,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -4721,16 +3785,16 @@
         <v>19600</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>40959410</v>
@@ -4777,30 +3841,6 @@
         <f aca="false">IF(AA41&lt;AB41,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE41" s="0" t="n">
-        <f aca="false">G41/F41</f>
-        <v>0.210755813953488</v>
-      </c>
-      <c r="AF41" s="0" t="n">
-        <f aca="false">U41/T41</f>
-        <v>0.253934326650178</v>
-      </c>
-      <c r="AG41" s="2" t="n">
-        <f aca="false">IF(AE41&lt;AF41,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI41" s="0" t="e">
-        <f aca="false">K41/J41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ41" s="0" t="n">
-        <f aca="false">Q41/P41</f>
-        <v>0.0970565622906577</v>
-      </c>
-      <c r="AK41" s="2" t="e">
-        <f aca="false">IF(AI41&gt;AJ41,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -4890,30 +3930,6 @@
         <f aca="false">IF(AA42&lt;AB42,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE42" s="0" t="n">
-        <f aca="false">G42/F42</f>
-        <v>0.448677722994173</v>
-      </c>
-      <c r="AF42" s="0" t="n">
-        <f aca="false">U42/T42</f>
-        <v>0.348810384007828</v>
-      </c>
-      <c r="AG42" s="2" t="n">
-        <f aca="false">IF(AE42&lt;AF42,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="0" t="n">
-        <f aca="false">K42/J42</f>
-        <v>0.376802507836991</v>
-      </c>
-      <c r="AJ42" s="0" t="n">
-        <f aca="false">Q42/P42</f>
-        <v>0.203016525362074</v>
-      </c>
-      <c r="AK42" s="2" t="n">
-        <f aca="false">IF(AI42&gt;AJ42,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -5003,30 +4019,6 @@
         <f aca="false">IF(AA43&lt;AB43,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE43" s="0" t="n">
-        <f aca="false">G43/F43</f>
-        <v>0.259611724400457</v>
-      </c>
-      <c r="AF43" s="0" t="n">
-        <f aca="false">U43/T43</f>
-        <v>0.329537664525227</v>
-      </c>
-      <c r="AG43" s="2" t="n">
-        <f aca="false">IF(AE43&lt;AF43,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI43" s="0" t="n">
-        <f aca="false">K43/J43</f>
-        <v>0.215105740181269</v>
-      </c>
-      <c r="AJ43" s="0" t="n">
-        <f aca="false">Q43/P43</f>
-        <v>0.147669373654478</v>
-      </c>
-      <c r="AK43" s="2" t="n">
-        <f aca="false">IF(AI43&gt;AJ43,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -5116,30 +4108,6 @@
         <f aca="false">IF(AA44&lt;AB44,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE44" s="0" t="n">
-        <f aca="false">G44/F44</f>
-        <v>0.247629083245522</v>
-      </c>
-      <c r="AF44" s="0" t="n">
-        <f aca="false">U44/T44</f>
-        <v>0.329537664525227</v>
-      </c>
-      <c r="AG44" s="2" t="n">
-        <f aca="false">IF(AE44&lt;AF44,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI44" s="0" t="n">
-        <f aca="false">K44/J44</f>
-        <v>0.182121971595656</v>
-      </c>
-      <c r="AJ44" s="0" t="n">
-        <f aca="false">Q44/P44</f>
-        <v>0.147669373654478</v>
-      </c>
-      <c r="AK44" s="2" t="n">
-        <f aca="false">IF(AI44&gt;AJ44,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -5158,28 +4126,28 @@
         <v>14300</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>32763410</v>
@@ -5226,26 +4194,6 @@
         <f aca="false">IF(AA45&lt;AB45,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF45" s="0" t="n">
-        <f aca="false">U45/T45</f>
-        <v>0.329537664525227</v>
-      </c>
-      <c r="AG45" s="2" t="n">
-        <f aca="false">IF(AE45&lt;AF45,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI45" s="0" t="e">
-        <f aca="false">K45/J45</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ45" s="0" t="n">
-        <f aca="false">Q45/P45</f>
-        <v>0.147669373654478</v>
-      </c>
-      <c r="AK45" s="2" t="e">
-        <f aca="false">IF(AI45&gt;AJ45,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -5335,30 +4283,6 @@
         <f aca="false">IF(AA46&lt;AB46,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="0" t="n">
-        <f aca="false">G46/F46</f>
-        <v>0.445495969155275</v>
-      </c>
-      <c r="AF46" s="0" t="n">
-        <f aca="false">U46/T46</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG46" s="2" t="n">
-        <f aca="false">IF(AE46&lt;AF46,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="0" t="n">
-        <f aca="false">K46/J46</f>
-        <v>0.373889268626111</v>
-      </c>
-      <c r="AJ46" s="0" t="n">
-        <f aca="false">Q46/P46</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK46" s="2" t="n">
-        <f aca="false">IF(AI46&gt;AJ46,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -5448,30 +4372,6 @@
         <f aca="false">IF(AA47&lt;AB47,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="0" t="n">
-        <f aca="false">G47/F47</f>
-        <v>0.300538277511962</v>
-      </c>
-      <c r="AF47" s="0" t="n">
-        <f aca="false">U47/T47</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG47" s="2" t="n">
-        <f aca="false">IF(AE47&lt;AF47,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI47" s="0" t="n">
-        <f aca="false">K47/J47</f>
-        <v>0.203604806408545</v>
-      </c>
-      <c r="AJ47" s="0" t="n">
-        <f aca="false">Q47/P47</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK47" s="2" t="n">
-        <f aca="false">IF(AI47&gt;AJ47,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -5561,30 +4461,6 @@
         <f aca="false">IF(AA48&lt;AB48,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE48" s="0" t="n">
-        <f aca="false">G48/F48</f>
-        <v>0.410054512416717</v>
-      </c>
-      <c r="AF48" s="0" t="n">
-        <f aca="false">U48/T48</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG48" s="2" t="n">
-        <f aca="false">IF(AE48&lt;AF48,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="0" t="n">
-        <f aca="false">K48/J48</f>
-        <v>0.352479135984291</v>
-      </c>
-      <c r="AJ48" s="0" t="n">
-        <f aca="false">Q48/P48</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK48" s="2" t="n">
-        <f aca="false">IF(AI48&gt;AJ48,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -5674,30 +4550,6 @@
         <f aca="false">IF(AA49&lt;AB49,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="0" t="n">
-        <f aca="false">G49/F49</f>
-        <v>0.236356863475508</v>
-      </c>
-      <c r="AF49" s="0" t="n">
-        <f aca="false">U49/T49</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG49" s="2" t="n">
-        <f aca="false">IF(AE49&lt;AF49,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI49" s="0" t="n">
-        <f aca="false">K49/J49</f>
-        <v>0.202450570871623</v>
-      </c>
-      <c r="AJ49" s="0" t="n">
-        <f aca="false">Q49/P49</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK49" s="2" t="n">
-        <f aca="false">IF(AI49&gt;AJ49,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -5787,30 +4639,6 @@
         <f aca="false">IF(AA50&lt;AB50,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE50" s="0" t="n">
-        <f aca="false">G50/F50</f>
-        <v>0.322064869803563</v>
-      </c>
-      <c r="AF50" s="0" t="n">
-        <f aca="false">U50/T50</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG50" s="2" t="n">
-        <f aca="false">IF(AE50&lt;AF50,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI50" s="0" t="n">
-        <f aca="false">K50/J50</f>
-        <v>0.198722498225692</v>
-      </c>
-      <c r="AJ50" s="0" t="n">
-        <f aca="false">Q50/P50</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK50" s="2" t="n">
-        <f aca="false">IF(AI50&gt;AJ50,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -5900,30 +4728,6 @@
         <f aca="false">IF(AA51&lt;AB51,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE51" s="0" t="n">
-        <f aca="false">G51/F51</f>
-        <v>0.278162450066578</v>
-      </c>
-      <c r="AF51" s="0" t="n">
-        <f aca="false">U51/T51</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG51" s="2" t="n">
-        <f aca="false">IF(AE51&lt;AF51,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI51" s="0" t="n">
-        <f aca="false">K51/J51</f>
-        <v>0.194501018329939</v>
-      </c>
-      <c r="AJ51" s="0" t="n">
-        <f aca="false">Q51/P51</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK51" s="2" t="n">
-        <f aca="false">IF(AI51&gt;AJ51,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -6013,30 +4817,6 @@
         <f aca="false">IF(AA52&lt;AB52,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE52" s="0" t="n">
-        <f aca="false">G52/F52</f>
-        <v>0.30184608007672</v>
-      </c>
-      <c r="AF52" s="0" t="n">
-        <f aca="false">U52/T52</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG52" s="2" t="n">
-        <f aca="false">IF(AE52&lt;AF52,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI52" s="0" t="n">
-        <f aca="false">K52/J52</f>
-        <v>0.261241970021413</v>
-      </c>
-      <c r="AJ52" s="0" t="n">
-        <f aca="false">Q52/P52</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK52" s="2" t="n">
-        <f aca="false">IF(AI52&gt;AJ52,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -6126,30 +4906,6 @@
         <f aca="false">IF(AA53&lt;AB53,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="0" t="n">
-        <f aca="false">G53/F53</f>
-        <v>0.329096530401924</v>
-      </c>
-      <c r="AF53" s="0" t="n">
-        <f aca="false">U53/T53</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG53" s="2" t="n">
-        <f aca="false">IF(AE53&lt;AF53,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI53" s="0" t="n">
-        <f aca="false">K53/J53</f>
-        <v>0.208040201005025</v>
-      </c>
-      <c r="AJ53" s="0" t="n">
-        <f aca="false">Q53/P53</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK53" s="2" t="n">
-        <f aca="false">IF(AI53&gt;AJ53,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -6239,30 +4995,6 @@
         <f aca="false">IF(AA54&lt;AB54,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE54" s="0" t="n">
-        <f aca="false">G54/F54</f>
-        <v>0.262374245472837</v>
-      </c>
-      <c r="AF54" s="0" t="n">
-        <f aca="false">U54/T54</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG54" s="2" t="n">
-        <f aca="false">IF(AE54&lt;AF54,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI54" s="0" t="n">
-        <f aca="false">K54/J54</f>
-        <v>0.123287671232877</v>
-      </c>
-      <c r="AJ54" s="0" t="n">
-        <f aca="false">Q54/P54</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK54" s="2" t="n">
-        <f aca="false">IF(AI54&gt;AJ54,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -6352,30 +5084,6 @@
         <f aca="false">IF(AA55&lt;AB55,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="0" t="n">
-        <f aca="false">G55/F55</f>
-        <v>0.324478178368121</v>
-      </c>
-      <c r="AF55" s="0" t="n">
-        <f aca="false">U55/T55</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG55" s="2" t="n">
-        <f aca="false">IF(AE55&lt;AF55,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI55" s="0" t="n">
-        <f aca="false">K55/J55</f>
-        <v>0.15041782729805</v>
-      </c>
-      <c r="AJ55" s="0" t="n">
-        <f aca="false">Q55/P55</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK55" s="2" t="n">
-        <f aca="false">IF(AI55&gt;AJ55,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -6465,30 +5173,6 @@
         <f aca="false">IF(AA56&lt;AB56,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE56" s="0" t="n">
-        <f aca="false">G56/F56</f>
-        <v>0.295502213936145</v>
-      </c>
-      <c r="AF56" s="0" t="n">
-        <f aca="false">U56/T56</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG56" s="2" t="n">
-        <f aca="false">IF(AE56&lt;AF56,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI56" s="0" t="n">
-        <f aca="false">K56/J56</f>
-        <v>0.277251184834123</v>
-      </c>
-      <c r="AJ56" s="0" t="n">
-        <f aca="false">Q56/P56</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK56" s="2" t="n">
-        <f aca="false">IF(AI56&gt;AJ56,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -6578,30 +5262,6 @@
         <f aca="false">IF(AA57&lt;AB57,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE57" s="0" t="n">
-        <f aca="false">G57/F57</f>
-        <v>0.401234567901235</v>
-      </c>
-      <c r="AF57" s="0" t="n">
-        <f aca="false">U57/T57</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG57" s="2" t="n">
-        <f aca="false">IF(AE57&lt;AF57,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI57" s="0" t="n">
-        <f aca="false">K57/J57</f>
-        <v>0.306277372262774</v>
-      </c>
-      <c r="AJ57" s="0" t="n">
-        <f aca="false">Q57/P57</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK57" s="2" t="n">
-        <f aca="false">IF(AI57&gt;AJ57,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -6691,30 +5351,6 @@
         <f aca="false">IF(AA58&lt;AB58,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE58" s="0" t="n">
-        <f aca="false">G58/F58</f>
-        <v>0.454650269023828</v>
-      </c>
-      <c r="AF58" s="0" t="n">
-        <f aca="false">U58/T58</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG58" s="2" t="n">
-        <f aca="false">IF(AE58&lt;AF58,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI58" s="0" t="n">
-        <f aca="false">K58/J58</f>
-        <v>0.396708015267176</v>
-      </c>
-      <c r="AJ58" s="0" t="n">
-        <f aca="false">Q58/P58</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK58" s="2" t="n">
-        <f aca="false">IF(AI58&gt;AJ58,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -6804,30 +5440,6 @@
         <f aca="false">IF(AA59&lt;AB59,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE59" s="0" t="n">
-        <f aca="false">G59/F59</f>
-        <v>0.297216699801193</v>
-      </c>
-      <c r="AF59" s="0" t="n">
-        <f aca="false">U59/T59</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG59" s="2" t="n">
-        <f aca="false">IF(AE59&lt;AF59,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI59" s="0" t="n">
-        <f aca="false">K59/J59</f>
-        <v>0.249448123620309</v>
-      </c>
-      <c r="AJ59" s="0" t="n">
-        <f aca="false">Q59/P59</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK59" s="2" t="n">
-        <f aca="false">IF(AI59&gt;AJ59,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -6858,16 +5470,16 @@
         <v>21900</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N60" s="0" t="n">
         <v>23665720</v>
@@ -6914,30 +5526,6 @@
         <f aca="false">IF(AA60&lt;AB60,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE60" s="0" t="n">
-        <f aca="false">G60/F60</f>
-        <v>0.119796091758709</v>
-      </c>
-      <c r="AF60" s="0" t="n">
-        <f aca="false">U60/T60</f>
-        <v>0.329917810822367</v>
-      </c>
-      <c r="AG60" s="2" t="n">
-        <f aca="false">IF(AE60&lt;AF60,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI60" s="0" t="e">
-        <f aca="false">K60/J60</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ60" s="0" t="n">
-        <f aca="false">Q60/P60</f>
-        <v>0.178720335298022</v>
-      </c>
-      <c r="AK60" s="2" t="e">
-        <f aca="false">IF(AI60&gt;AJ60,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -7027,30 +5615,6 @@
         <f aca="false">IF(AA61&lt;AB61,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE61" s="0" t="n">
-        <f aca="false">G61/F61</f>
-        <v>0.433249370277078</v>
-      </c>
-      <c r="AF61" s="0" t="n">
-        <f aca="false">U61/T61</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG61" s="2" t="n">
-        <f aca="false">IF(AE61&lt;AF61,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI61" s="0" t="n">
-        <f aca="false">K61/J61</f>
-        <v>0.328034682080925</v>
-      </c>
-      <c r="AJ61" s="0" t="n">
-        <f aca="false">Q61/P61</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK61" s="2" t="n">
-        <f aca="false">IF(AI61&gt;AJ61,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -7069,28 +5633,28 @@
         <v>13800</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>23665720</v>
@@ -7137,26 +5701,6 @@
         <f aca="false">IF(AA62&lt;AB62,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AF62" s="0" t="n">
-        <f aca="false">U62/T62</f>
-        <v>0.329917810822367</v>
-      </c>
-      <c r="AG62" s="2" t="n">
-        <f aca="false">IF(AE62&lt;AF62,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI62" s="0" t="e">
-        <f aca="false">K62/J62</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ62" s="0" t="n">
-        <f aca="false">Q62/P62</f>
-        <v>0.178720335298022</v>
-      </c>
-      <c r="AK62" s="2" t="e">
-        <f aca="false">IF(AI62&gt;AJ62,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -7187,16 +5731,16 @@
         <v>22200</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>24645485</v>
@@ -7243,30 +5787,6 @@
         <f aca="false">IF(AA63&lt;AB63,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE63" s="0" t="n">
-        <f aca="false">G63/F63</f>
-        <v>0.222395023328149</v>
-      </c>
-      <c r="AF63" s="0" t="n">
-        <f aca="false">U63/T63</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG63" s="2" t="n">
-        <f aca="false">IF(AE63&lt;AF63,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI63" s="0" t="e">
-        <f aca="false">K63/J63</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ63" s="0" t="n">
-        <f aca="false">Q63/P63</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK63" s="2" t="e">
-        <f aca="false">IF(AI63&gt;AJ63,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -7356,30 +5876,6 @@
         <f aca="false">IF(AA64&lt;AB64,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE64" s="0" t="n">
-        <f aca="false">G64/F64</f>
-        <v>0.397862232779097</v>
-      </c>
-      <c r="AF64" s="0" t="n">
-        <f aca="false">U64/T64</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG64" s="2" t="n">
-        <f aca="false">IF(AE64&lt;AF64,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI64" s="0" t="n">
-        <f aca="false">K64/J64</f>
-        <v>0.293298192771084</v>
-      </c>
-      <c r="AJ64" s="0" t="n">
-        <f aca="false">Q64/P64</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK64" s="2" t="n">
-        <f aca="false">IF(AI64&gt;AJ64,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -7469,30 +5965,6 @@
         <f aca="false">IF(AA65&lt;AB65,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE65" s="0" t="n">
-        <f aca="false">G65/F65</f>
-        <v>0.247027988392774</v>
-      </c>
-      <c r="AF65" s="0" t="n">
-        <f aca="false">U65/T65</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG65" s="2" t="n">
-        <f aca="false">IF(AE65&lt;AF65,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI65" s="0" t="n">
-        <f aca="false">K65/J65</f>
-        <v>0.217492260061919</v>
-      </c>
-      <c r="AJ65" s="0" t="n">
-        <f aca="false">Q65/P65</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK65" s="2" t="n">
-        <f aca="false">IF(AI65&gt;AJ65,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -7582,30 +6054,6 @@
         <f aca="false">IF(AA66&lt;AB66,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE66" s="0" t="n">
-        <f aca="false">G66/F66</f>
-        <v>0.276815366663675</v>
-      </c>
-      <c r="AF66" s="0" t="n">
-        <f aca="false">U66/T66</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG66" s="2" t="n">
-        <f aca="false">IF(AE66&lt;AF66,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI66" s="0" t="n">
-        <f aca="false">K66/J66</f>
-        <v>0.220218319886094</v>
-      </c>
-      <c r="AJ66" s="0" t="n">
-        <f aca="false">Q66/P66</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK66" s="2" t="n">
-        <f aca="false">IF(AI66&gt;AJ66,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -7636,16 +6084,16 @@
         <v>21800</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N67" s="0" t="n">
         <v>23665720</v>
@@ -7692,30 +6140,6 @@
         <f aca="false">IF(AA67&lt;AB67,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE67" s="0" t="n">
-        <f aca="false">G67/F67</f>
-        <v>0.121314237573715</v>
-      </c>
-      <c r="AF67" s="0" t="n">
-        <f aca="false">U67/T67</f>
-        <v>0.329917810822367</v>
-      </c>
-      <c r="AG67" s="2" t="n">
-        <f aca="false">IF(AE67&lt;AF67,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI67" s="0" t="e">
-        <f aca="false">K67/J67</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AJ67" s="0" t="n">
-        <f aca="false">Q67/P67</f>
-        <v>0.178720335298022</v>
-      </c>
-      <c r="AK67" s="2" t="e">
-        <f aca="false">IF(AI67&gt;AJ67,TRUE())</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -7805,30 +6229,6 @@
         <f aca="false">IF(AA68&lt;AB68,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE68" s="0" t="n">
-        <f aca="false">G68/F68</f>
-        <v>0.235620235620236</v>
-      </c>
-      <c r="AF68" s="0" t="n">
-        <f aca="false">U68/T68</f>
-        <v>0.329917810822367</v>
-      </c>
-      <c r="AG68" s="2" t="n">
-        <f aca="false">IF(AE68&lt;AF68,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI68" s="0" t="n">
-        <f aca="false">K68/J68</f>
-        <v>0.142975893599335</v>
-      </c>
-      <c r="AJ68" s="0" t="n">
-        <f aca="false">Q68/P68</f>
-        <v>0.178720335298022</v>
-      </c>
-      <c r="AK68" s="2" t="n">
-        <f aca="false">IF(AI68&gt;AJ68,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -7918,30 +6318,6 @@
         <f aca="false">IF(AA69&lt;AB69,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE69" s="0" t="n">
-        <f aca="false">G69/F69</f>
-        <v>0.227891156462585</v>
-      </c>
-      <c r="AF69" s="0" t="n">
-        <f aca="false">U69/T69</f>
-        <v>0.329917810822367</v>
-      </c>
-      <c r="AG69" s="2" t="n">
-        <f aca="false">IF(AE69&lt;AF69,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI69" s="0" t="n">
-        <f aca="false">K69/J69</f>
-        <v>0.17027027027027</v>
-      </c>
-      <c r="AJ69" s="0" t="n">
-        <f aca="false">Q69/P69</f>
-        <v>0.178720335298022</v>
-      </c>
-      <c r="AK69" s="2" t="n">
-        <f aca="false">IF(AI69&gt;AJ69,TRUE())</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -8031,30 +6407,6 @@
         <f aca="false">IF(AA70&lt;AB70,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE70" s="0" t="n">
-        <f aca="false">G70/F70</f>
-        <v>0.375164430413049</v>
-      </c>
-      <c r="AF70" s="0" t="n">
-        <f aca="false">U70/T70</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG70" s="2" t="n">
-        <f aca="false">IF(AE70&lt;AF70,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI70" s="0" t="n">
-        <f aca="false">K70/J70</f>
-        <v>0.255017709563164</v>
-      </c>
-      <c r="AJ70" s="0" t="n">
-        <f aca="false">Q70/P70</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK70" s="2" t="n">
-        <f aca="false">IF(AI70&gt;AJ70,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -8144,30 +6496,6 @@
         <f aca="false">IF(AA71&lt;AB71,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE71" s="0" t="n">
-        <f aca="false">G71/F71</f>
-        <v>0.43911612599906</v>
-      </c>
-      <c r="AF71" s="0" t="n">
-        <f aca="false">U71/T71</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG71" s="2" t="n">
-        <f aca="false">IF(AE71&lt;AF71,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI71" s="0" t="n">
-        <f aca="false">K71/J71</f>
-        <v>0.381578947368421</v>
-      </c>
-      <c r="AJ71" s="0" t="n">
-        <f aca="false">Q71/P71</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK71" s="2" t="n">
-        <f aca="false">IF(AI71&gt;AJ71,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -8257,30 +6585,6 @@
         <f aca="false">IF(AA72&lt;AB72,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE72" s="0" t="n">
-        <f aca="false">G72/F72</f>
-        <v>0.353817504655493</v>
-      </c>
-      <c r="AF72" s="0" t="n">
-        <f aca="false">U72/T72</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG72" s="2" t="n">
-        <f aca="false">IF(AE72&lt;AF72,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI72" s="0" t="n">
-        <f aca="false">K72/J72</f>
-        <v>0.240952380952381</v>
-      </c>
-      <c r="AJ72" s="0" t="n">
-        <f aca="false">Q72/P72</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK72" s="2" t="n">
-        <f aca="false">IF(AI72&gt;AJ72,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -8370,30 +6674,6 @@
         <f aca="false">IF(AA73&lt;AB73,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE73" s="0" t="n">
-        <f aca="false">G73/F73</f>
-        <v>0.315442561205273</v>
-      </c>
-      <c r="AF73" s="0" t="n">
-        <f aca="false">U73/T73</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG73" s="2" t="n">
-        <f aca="false">IF(AE73&lt;AF73,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI73" s="0" t="n">
-        <f aca="false">K73/J73</f>
-        <v>0.215</v>
-      </c>
-      <c r="AJ73" s="0" t="n">
-        <f aca="false">Q73/P73</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK73" s="2" t="n">
-        <f aca="false">IF(AI73&gt;AJ73,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -8483,30 +6763,6 @@
         <f aca="false">IF(AA74&lt;AB74,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE74" s="0" t="n">
-        <f aca="false">G74/F74</f>
-        <v>0.312020059551794</v>
-      </c>
-      <c r="AF74" s="0" t="n">
-        <f aca="false">U74/T74</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG74" s="2" t="n">
-        <f aca="false">IF(AE74&lt;AF74,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI74" s="0" t="n">
-        <f aca="false">K74/J74</f>
-        <v>0.35385226370135</v>
-      </c>
-      <c r="AJ74" s="0" t="n">
-        <f aca="false">Q74/P74</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK74" s="2" t="n">
-        <f aca="false">IF(AI74&gt;AJ74,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -8596,30 +6852,6 @@
         <f aca="false">IF(AA75&lt;AB75,TRUE())</f>
         <v>0</v>
       </c>
-      <c r="AE75" s="0" t="n">
-        <f aca="false">G75/F75</f>
-        <v>0.434873323397914</v>
-      </c>
-      <c r="AF75" s="0" t="n">
-        <f aca="false">U75/T75</f>
-        <v>0.364742543104579</v>
-      </c>
-      <c r="AG75" s="2" t="n">
-        <f aca="false">IF(AE75&lt;AF75,TRUE())</f>
-        <v>0</v>
-      </c>
-      <c r="AI75" s="0" t="n">
-        <f aca="false">K75/J75</f>
-        <v>0.387854251012146</v>
-      </c>
-      <c r="AJ75" s="0" t="n">
-        <f aca="false">Q75/P75</f>
-        <v>0.203635542788402</v>
-      </c>
-      <c r="AK75" s="2" t="n">
-        <f aca="false">IF(AI75&gt;AJ75,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -8709,30 +6941,6 @@
         <f aca="false">IF(AA76&lt;AB76,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE76" s="0" t="n">
-        <f aca="false">G76/F76</f>
-        <v>0.357653791130186</v>
-      </c>
-      <c r="AF76" s="0" t="n">
-        <f aca="false">U76/T76</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG76" s="2" t="n">
-        <f aca="false">IF(AE76&lt;AF76,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI76" s="0" t="n">
-        <f aca="false">K76/J76</f>
-        <v>0.353441455696203</v>
-      </c>
-      <c r="AJ76" s="0" t="n">
-        <f aca="false">Q76/P76</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK76" s="2" t="n">
-        <f aca="false">IF(AI76&gt;AJ76,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -8822,37 +7030,13 @@
         <f aca="false">IF(AA77&lt;AB77,TRUE())</f>
         <v>1</v>
       </c>
-      <c r="AE77" s="0" t="n">
-        <f aca="false">G77/F77</f>
-        <v>0.270116979794399</v>
-      </c>
-      <c r="AF77" s="0" t="n">
-        <f aca="false">U77/T77</f>
-        <v>0.367121402960034</v>
-      </c>
-      <c r="AG77" s="2" t="n">
-        <f aca="false">IF(AE77&lt;AF77,TRUE())</f>
-        <v>1</v>
-      </c>
-      <c r="AI77" s="0" t="n">
-        <f aca="false">K77/J77</f>
-        <v>0.276406841624233</v>
-      </c>
-      <c r="AJ77" s="0" t="n">
-        <f aca="false">Q77/P77</f>
-        <v>0.20403312831328</v>
-      </c>
-      <c r="AK77" s="2" t="n">
-        <f aca="false">IF(AI77&gt;AJ77,TRUE())</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W78" s="3" t="n">
+      <c r="W78" s="2" t="n">
         <f aca="false">AVERAGE(W2:W77)</f>
         <v>0.307918059647007</v>
       </c>
-      <c r="X78" s="3" t="n">
+      <c r="X78" s="2" t="n">
         <f aca="false">AVERAGE(X2:X77)</f>
         <v>0.374749792747031</v>
       </c>
@@ -8863,14 +7047,6 @@
       <c r="AB78" s="0" t="n">
         <f aca="false">AVERAGE(AB2:AB77)</f>
         <v>0.640840539867306</v>
-      </c>
-      <c r="AE78" s="3" t="n">
-        <f aca="false">AVERAGE(AE2:AE77)</f>
-        <v>0.2796956797424</v>
-      </c>
-      <c r="AF78" s="3" t="n">
-        <f aca="false">AVERAGE(AF2:AF77)</f>
-        <v>0.311175822011478</v>
       </c>
     </row>
   </sheetData>
